--- a/data/annotation/supply_annotation.xlsx
+++ b/data/annotation/supply_annotation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="5820" yWindow="-21600" windowWidth="14880" windowHeight="19100" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="62">
   <si>
     <t xml:space="preserve">Media </t>
   </si>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t>Economic Access</t>
+  </si>
+  <si>
+    <t>Unrelated</t>
   </si>
 </sst>
 </file>
@@ -602,17 +605,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G83" sqref="G83"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G81" sqref="G81:G92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="55" customWidth="1"/>
-    <col min="5" max="5" width="36.1640625" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -629,7 +632,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -645,8 +648,11 @@
       <c r="F2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -662,8 +668,11 @@
       <c r="F3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -679,8 +688,11 @@
       <c r="F4" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -696,8 +708,11 @@
       <c r="F5" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -713,8 +728,11 @@
       <c r="F6" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -730,8 +748,11 @@
       <c r="F7" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -747,8 +768,11 @@
       <c r="F8" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -764,8 +788,11 @@
       <c r="F9" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -781,8 +808,11 @@
       <c r="F10" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="45">
+      <c r="G10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="45">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -798,8 +828,11 @@
       <c r="F11" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -815,8 +848,11 @@
       <c r="F12" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -832,8 +868,11 @@
       <c r="F13" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -849,8 +888,11 @@
       <c r="F14" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -866,8 +908,11 @@
       <c r="F15" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -883,6 +928,9 @@
       <c r="F16" t="s">
         <v>56</v>
       </c>
+      <c r="G16" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
@@ -900,6 +948,9 @@
       <c r="F17" t="s">
         <v>56</v>
       </c>
+      <c r="G17" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
@@ -917,6 +968,9 @@
       <c r="F18" t="s">
         <v>56</v>
       </c>
+      <c r="G18" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
@@ -934,6 +988,9 @@
       <c r="F19" t="s">
         <v>56</v>
       </c>
+      <c r="G19" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
@@ -951,6 +1008,9 @@
       <c r="F20" t="s">
         <v>56</v>
       </c>
+      <c r="G20" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
@@ -968,6 +1028,9 @@
       <c r="F21" t="s">
         <v>56</v>
       </c>
+      <c r="G21" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
@@ -985,6 +1048,9 @@
       <c r="F22" t="s">
         <v>56</v>
       </c>
+      <c r="G22" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
@@ -1002,6 +1068,9 @@
       <c r="F23" t="s">
         <v>56</v>
       </c>
+      <c r="G23" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
@@ -1019,6 +1088,9 @@
       <c r="F24" t="s">
         <v>56</v>
       </c>
+      <c r="G24" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
@@ -1036,6 +1108,9 @@
       <c r="F25" t="s">
         <v>56</v>
       </c>
+      <c r="G25" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
@@ -1076,6 +1151,9 @@
       <c r="F27" t="s">
         <v>56</v>
       </c>
+      <c r="G27" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
@@ -1093,6 +1171,9 @@
       <c r="F28" t="s">
         <v>56</v>
       </c>
+      <c r="G28" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
@@ -1110,6 +1191,9 @@
       <c r="F29" t="s">
         <v>56</v>
       </c>
+      <c r="G29" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
@@ -1127,6 +1211,9 @@
       <c r="F30" t="s">
         <v>56</v>
       </c>
+      <c r="G30" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
@@ -1144,6 +1231,9 @@
       <c r="F31" t="s">
         <v>56</v>
       </c>
+      <c r="G31" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
@@ -1161,6 +1251,9 @@
       <c r="F32" t="s">
         <v>56</v>
       </c>
+      <c r="G32" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
@@ -1178,6 +1271,9 @@
       <c r="F33" t="s">
         <v>56</v>
       </c>
+      <c r="G33" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
@@ -1195,6 +1291,9 @@
       <c r="F34" t="s">
         <v>56</v>
       </c>
+      <c r="G34" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
@@ -1212,6 +1311,9 @@
       <c r="F35" t="s">
         <v>56</v>
       </c>
+      <c r="G35" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
@@ -1249,6 +1351,9 @@
       <c r="F37" t="s">
         <v>56</v>
       </c>
+      <c r="G37" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
@@ -1266,6 +1371,9 @@
       <c r="F38" t="s">
         <v>56</v>
       </c>
+      <c r="G38" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
@@ -1283,6 +1391,9 @@
       <c r="F39" t="s">
         <v>56</v>
       </c>
+      <c r="G39" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
@@ -1300,6 +1411,9 @@
       <c r="F40" t="s">
         <v>56</v>
       </c>
+      <c r="G40" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
@@ -1317,6 +1431,9 @@
       <c r="F41" t="s">
         <v>56</v>
       </c>
+      <c r="G41" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
@@ -1334,6 +1451,9 @@
       <c r="F42" t="s">
         <v>56</v>
       </c>
+      <c r="G42" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
@@ -1351,6 +1471,9 @@
       <c r="F43" t="s">
         <v>56</v>
       </c>
+      <c r="G43" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
@@ -1368,6 +1491,9 @@
       <c r="F44" t="s">
         <v>56</v>
       </c>
+      <c r="G44" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="45" spans="1:7" ht="45">
       <c r="A45" t="s">
@@ -1385,6 +1511,9 @@
       <c r="F45" t="s">
         <v>56</v>
       </c>
+      <c r="G45" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
@@ -1402,6 +1531,9 @@
       <c r="F46" t="s">
         <v>56</v>
       </c>
+      <c r="G46" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
@@ -1419,6 +1551,9 @@
       <c r="F47" t="s">
         <v>56</v>
       </c>
+      <c r="G47" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
@@ -1436,8 +1571,11 @@
       <c r="F48" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="49" spans="1:6">
+      <c r="G48" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -1453,8 +1591,11 @@
       <c r="F49" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
         <v>5</v>
       </c>
@@ -1470,8 +1611,11 @@
       <c r="F50" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="G50" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
         <v>5</v>
       </c>
@@ -1487,8 +1631,11 @@
       <c r="F51" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="G51" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -1504,8 +1651,11 @@
       <c r="F52" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
         <v>5</v>
       </c>
@@ -1521,8 +1671,11 @@
       <c r="F53" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="54" spans="1:6">
+      <c r="G53" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" t="s">
         <v>5</v>
       </c>
@@ -1538,8 +1691,11 @@
       <c r="F54" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="55" spans="1:6">
+      <c r="G54" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
         <v>5</v>
       </c>
@@ -1555,8 +1711,11 @@
       <c r="F55" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="56" spans="1:6">
+      <c r="G55" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" t="s">
         <v>5</v>
       </c>
@@ -1572,8 +1731,11 @@
       <c r="F56" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="57" spans="1:6">
+      <c r="G56" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
         <v>5</v>
       </c>
@@ -1589,8 +1751,11 @@
       <c r="F57" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" t="s">
         <v>5</v>
       </c>
@@ -1606,8 +1771,11 @@
       <c r="F58" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="59" spans="1:6">
+      <c r="G58" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" t="s">
         <v>5</v>
       </c>
@@ -1623,8 +1791,11 @@
       <c r="F59" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="60" spans="1:6">
+      <c r="G59" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" t="s">
         <v>5</v>
       </c>
@@ -1640,8 +1811,11 @@
       <c r="F60" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="61" spans="1:6">
+      <c r="G60" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" t="s">
         <v>5</v>
       </c>
@@ -1657,8 +1831,11 @@
       <c r="F61" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="62" spans="1:6">
+      <c r="G61" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" t="s">
         <v>5</v>
       </c>
@@ -1674,8 +1851,11 @@
       <c r="F62" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" t="s">
         <v>5</v>
       </c>
@@ -1691,8 +1871,11 @@
       <c r="F63" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="64" spans="1:6">
+      <c r="G63" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" t="s">
         <v>5</v>
       </c>
@@ -1708,6 +1891,9 @@
       <c r="F64" t="s">
         <v>56</v>
       </c>
+      <c r="G64" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
@@ -1745,6 +1931,9 @@
       <c r="F66" t="s">
         <v>56</v>
       </c>
+      <c r="G66" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
@@ -1762,6 +1951,9 @@
       <c r="F67" t="s">
         <v>56</v>
       </c>
+      <c r="G67" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
@@ -1779,6 +1971,9 @@
       <c r="F68" t="s">
         <v>56</v>
       </c>
+      <c r="G68" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
@@ -1796,6 +1991,9 @@
       <c r="F69" t="s">
         <v>56</v>
       </c>
+      <c r="G69" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
@@ -1813,6 +2011,9 @@
       <c r="F70" t="s">
         <v>56</v>
       </c>
+      <c r="G70" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" t="s">
@@ -1830,6 +2031,9 @@
       <c r="F71" t="s">
         <v>56</v>
       </c>
+      <c r="G71" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
@@ -1847,6 +2051,9 @@
       <c r="F72" t="s">
         <v>56</v>
       </c>
+      <c r="G72" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" t="s">
@@ -1864,6 +2071,9 @@
       <c r="F73" t="s">
         <v>56</v>
       </c>
+      <c r="G73" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" t="s">
@@ -1881,6 +2091,9 @@
       <c r="F74" t="s">
         <v>56</v>
       </c>
+      <c r="G74" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" t="s">
@@ -1898,6 +2111,9 @@
       <c r="F75" t="s">
         <v>56</v>
       </c>
+      <c r="G75" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" t="s">
@@ -1915,6 +2131,9 @@
       <c r="F76" t="s">
         <v>56</v>
       </c>
+      <c r="G76" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" t="s">
@@ -1932,6 +2151,9 @@
       <c r="F77" t="s">
         <v>56</v>
       </c>
+      <c r="G77" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="s">
@@ -1949,6 +2171,9 @@
       <c r="F78" t="s">
         <v>56</v>
       </c>
+      <c r="G78" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
@@ -1966,6 +2191,9 @@
       <c r="F79" t="s">
         <v>56</v>
       </c>
+      <c r="G79" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" t="s">
@@ -1987,7 +2215,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:7">
       <c r="A81" t="s">
         <v>5</v>
       </c>
@@ -2003,8 +2231,11 @@
       <c r="F81" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="82" spans="1:6">
+      <c r="G81" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" t="s">
         <v>5</v>
       </c>
@@ -2020,8 +2251,11 @@
       <c r="F82" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" t="s">
         <v>5</v>
       </c>
@@ -2037,8 +2271,11 @@
       <c r="F83" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="84" spans="1:6">
+      <c r="G83" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" t="s">
         <v>5</v>
       </c>
@@ -2054,8 +2291,11 @@
       <c r="F84" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" t="s">
         <v>5</v>
       </c>
@@ -2071,8 +2311,11 @@
       <c r="F85" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="86" spans="1:6">
+      <c r="G85" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" t="s">
         <v>5</v>
       </c>
@@ -2088,8 +2331,11 @@
       <c r="F86" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="87" spans="1:6">
+      <c r="G86" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" t="s">
         <v>5</v>
       </c>
@@ -2105,8 +2351,11 @@
       <c r="F87" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="88" spans="1:6">
+      <c r="G87" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" t="s">
         <v>5</v>
       </c>
@@ -2122,8 +2371,11 @@
       <c r="F88" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="89" spans="1:6">
+      <c r="G88" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" t="s">
         <v>5</v>
       </c>
@@ -2139,8 +2391,11 @@
       <c r="F89" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="90" spans="1:6">
+      <c r="G89" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" t="s">
         <v>5</v>
       </c>
@@ -2156,8 +2411,11 @@
       <c r="F90" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="91" spans="1:6">
+      <c r="G90" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" t="s">
         <v>5</v>
       </c>
@@ -2173,8 +2431,11 @@
       <c r="F91" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="92" spans="1:6">
+      <c r="G91" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" t="s">
         <v>5</v>
       </c>
@@ -2189,6 +2450,9 @@
       </c>
       <c r="F92" t="s">
         <v>56</v>
+      </c>
+      <c r="G92" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
